--- a/data/Export Vorlage.xlsx
+++ b/data/Export Vorlage.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29712"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e1d3018db502cb77/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e1d3018db502cb77/Documents/GitHub/Kurzschlussfestigkeit/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E219C60A-ED74-4BE6-B7AC-30D094904C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{E219C60A-ED74-4BE6-B7AC-30D094904C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70550016-100D-4AB9-989E-BDB991B9330E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-45" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Höhenkorrektur" sheetId="18" r:id="rId1"/>
     <sheet name="Quellen &amp; Versionen" sheetId="19" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Versionskontrolle</t>
   </si>
@@ -182,13 +181,16 @@
   </si>
   <si>
     <t>Abstand Phasenabstandshalter 10</t>
+  </si>
+  <si>
+    <t>f Frequenz des Netzes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="13">
+  <numFmts count="14">
     <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00;\-* #,##0.00;_-* &quot;-&quot;??;_-@_-"/>
@@ -202,6 +204,7 @@
     <numFmt numFmtId="174" formatCode="#,##0.00\ &quot;kg&quot;"/>
     <numFmt numFmtId="175" formatCode="#,##0.00\ &quot;kN&quot;"/>
     <numFmt numFmtId="176" formatCode="#,##0\ &quot;N/m&quot;"/>
+    <numFmt numFmtId="177" formatCode="#,##0.00\ &quot;Hz&quot;"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -920,7 +923,7 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="22" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1052,59 +1055,62 @@
     <xf numFmtId="0" fontId="20" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="8" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="11" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="8" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="11" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="8" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="11" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="8" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="11" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="177" fontId="20" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1374,10 +1380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A078B13-6700-4179-A8AA-055BB431ED20}">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B10"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1500,151 +1506,154 @@
       <c r="B14" s="33"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="63"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="40"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="B16" s="40"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="37"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="B17" s="37"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="29"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="B18" s="29"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="34"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
+      <c r="B19" s="34"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="40"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="B20" s="40"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="25"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="B21" s="25"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="25"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="B22" s="25"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="25"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="B23" s="25"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="25"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="39" t="s">
+      <c r="B24" s="25"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="40"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="B25" s="40"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="35"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="B26" s="35"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="35"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="B27" s="35"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="36"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="39" t="s">
+      <c r="B28" s="36"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="40"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="B29" s="40"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="25"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="B30" s="25"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="25"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="B31" s="25"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="25"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="B32" s="25"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="25"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+      <c r="B33" s="25"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="25"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="B34" s="25"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="25"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="B35" s="25"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="25"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="B36" s="25"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="25"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+      <c r="B37" s="25"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="25"/>
-    </row>
-    <row r="38" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="26" t="s">
+      <c r="B38" s="25"/>
+    </row>
+    <row r="39" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="27"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
+      <c r="B39" s="27"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
@@ -1710,14 +1719,10 @@
       <c r="A60" s="8"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
+      <c r="A61" s="8"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="8"/>
+      <c r="A62" s="3"/>
       <c r="B62" s="9"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1786,22 +1791,29 @@
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
     </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="8"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <protectedRanges>
-    <protectedRange sqref="B61:B71 B5:B38" name="Bereich2"/>
-    <protectedRange sqref="D61:D71" name="Bereich4"/>
+    <protectedRange sqref="B62:B72 B5:B39" name="Bereich2"/>
+    <protectedRange sqref="D62:D72" name="Bereich4"/>
   </protectedRanges>
   <mergeCells count="7">
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A29:B29"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A20:B20"/>
   </mergeCells>
-  <dataValidations count="9">
+  <dataValidations count="10">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{F4E767AA-92D8-4AA5-AD9D-4061F5FEB42E}">
       <formula1>"Abgespannt, Aufgelegt, Unterschlaufung, Schlaufe am Spannfeldende"</formula1>
     </dataValidation>
@@ -1820,14 +1832,17 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10" xr:uid="{7EAAB32E-8C94-4D99-9DCC-C87CD9A20E9A}">
       <formula1>"60, 70, 80, 90, 100"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17" xr:uid="{1ABE7FAD-7B2B-4458-8FFC-BA5401C0A807}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18" xr:uid="{1ABE7FAD-7B2B-4458-8FFC-BA5401C0A807}">
       <formula1>"1,2,3,4,5,6"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27" xr:uid="{0CFB30F6-47B6-427A-AC3C-89C710C4684F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28" xr:uid="{0CFB30F6-47B6-427A-AC3C-89C710C4684F}">
       <formula1>"100000, 150000, 1300000, 400000, 2000000, 600000, 3000000"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16" xr:uid="{DD76BAA2-9D59-4DB8-852A-41AA0F911BDB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17" xr:uid="{DD76BAA2-9D59-4DB8-852A-41AA0F911BDB}">
       <formula1>_xlfn._LONGTEXT("16-AL1 (16); 24-AL1 (25); 34-AL1 (35); 49-AL1 (50); 48-AL1 (50); 66-AL1 (70); 93-AL1 (95); 117-AL1 (120); 147-AL1 (150); 182-AL1 (185); 243-AL1 (240); 299-AL1 (300); 400-AL1 (400); 500-AL1 (500); 626-AL1 (625); 802-AL1 (800); 1000-AL1 (1000); 16-AL3 (16);"," 24-AL3 (25); 34-AL3 (35); 49-AL3 (50); 66-AL3 (70); 93-AL3 (95); 117-AL3 (120); 147-AL3 (150); 182-AL3 (185); 243-AL3 (240); 299-AL3 (300); 400-AL3 (400); 500-AL3 (500); 626-AL3 (625); 802-AL3 (800); 1000-AL3 (1000); 22-AL4 (ASTER 22); 34-AL4 (ASTER 34,4","); 55-AL4 (ASTER 54,6); 76-AL4 (ASTER 75,5); 117-AL4 (ASTER 117); 148-AL4 (ASTER 148); 182-AL4 (ASTER 181,6); 228-AL4 (ASTER 228); 228-AL4 (ASTER 288); 366-AL4 (ASTER 366); 570-AL4 (ASTER 570); 851-AL4 (ASTER 851); 1144-AL4 (ASTER 1144); 1600-AL4 (1596-AL","4, ASTER 1600); 15-AL1/3-ST1A (16/2,5); 24-AL1/4-ST1A (25/4); 34-AL1/6-ST1A (35/6); 44-AL1/32-ST1A (44/32); 48-AL1/8-ST1A (50/8); 51-AL1/30-ST1A (50/30); 70-AL1/11-ST1A (70/12); 94-AL1/15-ST1A (95/15); 97-AL1/56-ST1A (95/55); 106-AL1/76-ST1A (105/75); 122","-AL1/20-ST1A (120/20); 122-AL1/71-ST1A (120/70); 128-AL1/30-ST1A (125/30); 149-AL1/24-ST1A (150/25); 172-AL1/40-ST1A (170/40); 184-AL1/30-ST1A (185/30); 209-AL1/34-ST1A (210/35); 212-AL1/49-ST1A (210/50); 231-AL1/30-ST1A (230/30); 243-AL1/39-ST1A (240/40)","; 264-AL1/34-ST1A (265/35); 304-AL1/49-ST1A (300/50); 305-AL1/39-ST1A (305/40); 339-AL1/30-ST1A (340/30); 382-AL1/49-ST1A (380/50); 386-AL1/34-ST1A (385/35); 434-AL1/56-ST1A (435/55); 449-AL1/39-ST1A (450/40); 490-AL1/64-ST1A (490/65); 494-AL1/34-ST1A (49","5/35); 511-AL1/45-ST1A (510/45); 550-AL1/71-ST1A (550/70); 562-AL1/49-ST1A (560/50); 571-AL1/39-ST1A (570/40); 653-AL1/45-ST1A (650/45); 679-AL1/86-ST1A (680/85); 1046-AL1/45-ST1A (1045/45); 15-AL3/3-ST1A (16/2,5); 24-AL3/ 4-ST1A (25/4); 34-AL3/ 6-ST1A (3","5/6); 44-AL3/32-ST1A (44/32); 48-AL3/ 8-ST1A (50/8); 51-AL3/30-ST1A (50/30); 70-AL3/ 11-ST1A (70/12); 94-AL3/ 22-ST1A (94/22); 94-AL3/ 15-ST1A (95/15); 97-AL3/ 34-ST1A (95/55); 106-AL3/76-ST1A (105/75); 122-AL3/ 20-ST1A (120/20); 122-AL3/ 71-ST1A (120/70)","; 128-AL3/ 30-ST1A (125/30); 149-AL3/ 24-ST1A (150/25); 172-AL3/ 40-ST1A (170/40); 184-AL3/ 30-ST1A (185/30); 209-AL3/ 34-ST1A (210/35); 212-AL3/ 49-ST1A (210/50); 231-AL3/ 30-ST1A (230/30); 243-AL3/ 39-ST1A (240/40); 264-AL3/ 34-ST1A (265/35); 304-AL3/ 4","9-ST1A (300/50); 305-AL3/ 39-ST1A (305/40); 339-AL3/ 30-ST1A (340/30); 382-AL3/ 49-ST1A (380/50); 386-AL3/ 34-ST1A (385/35); 434-AL3/ 56-ST1A (435/55); 449-AL3/ 39-ST1A (450/40); 490-AL3/ 64-ST1A (490/65); 550-AL3/ 71-ST1A (550/70); 562-AL3/ 49-ST1A (560/","50); 679-AL3/ 86-ST1A (680/85); 24-A20SA (25); 34-A20SA (35); 49-A20SA (50); 66-A20SA (70); 93-A20SA (95); 117-A20SA (120); 147-A20SA (150); 182-A20SA (185); 243-A20SA (240); 299-A20SA (300); DIN 48201-500-E-Cu; DIN 48201-400-E-Cu; DIN 48201-300-E-Cu; DIN"," 48201-240-E-Cu; DIN 48201-185-E-Cu; DIN 48201-150-E-Cu; DIN 48201-120-E-Cu; DIN 48201-95-E-Cu; DIN 48201-70-E-Cu; DIN 48201-50/19-E-Cu; DIN 48201-50/7-E-Cu; DIN 48201-35-E-Cu; DIN 48201-25-E-Cu; DIN 48201-16-E-Cu; DIN 48201-10-E-Cu; Bronze-Seil 10; Bronz","e-Seil 16; Bronze-Seil 25; Bronze-Seil 35; Bronze-Seil 50; Bronze-Seil 50; Bronze-Seil 70; Bronze-Seil 95; Bronze-Seil 120; Bronze-Seil 150; Bronze-Seil 185; Bronze-Seil 240; Bronze-Seil 300; Bronze-Seil 400; Bronze-Seil 500")</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15" xr:uid="{D1816294-265D-4F7E-A251-453E30BCC2DB}">
+      <formula1>"50,16.66"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.78740157480314965" right="0.55118110236220474" top="1.1811023622047245" bottom="0.78740157480314965" header="0.47244094488188981" footer="0.35433070866141736"/>
@@ -1888,10 +1903,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="52"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="12" t="s">
         <v>6</v>
       </c>
@@ -1906,186 +1921,186 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="54"/>
+      <c r="B5" s="48"/>
       <c r="C5" s="16"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
-      <c r="B6" s="56"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="19"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
       <c r="F6" s="21"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
-      <c r="B7" s="54"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="16"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
       <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
-      <c r="B8" s="58"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="19"/>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="21"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="16"/>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="57"/>
-      <c r="B10" s="58"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="19"/>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
       <c r="F10" s="21"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
-      <c r="B11" s="54"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="16"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="59"/>
-      <c r="B12" s="60"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="56"/>
       <c r="C12" s="19"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="21"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
-      <c r="B13" s="62"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="58"/>
       <c r="C13" s="16"/>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
-      <c r="B14" s="56"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="19"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
-      <c r="B15" s="54"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
-      <c r="B16" s="56"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="19"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="21"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
-      <c r="B17" s="54"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="16"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="18"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
-      <c r="B18" s="48"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="19"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
       <c r="F18" s="21"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
-      <c r="B19" s="46"/>
+      <c r="A19" s="59"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="16"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
       <c r="F19" s="18"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
-      <c r="B20" s="48"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="19"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
       <c r="F20" s="21"/>
     </row>
     <row r="21" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
-      <c r="B21" s="46"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="60"/>
       <c r="C21" s="16"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="18"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
-      <c r="B22" s="48"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="52"/>
       <c r="C22" s="19"/>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
       <c r="F22" s="21"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
-      <c r="B23" s="46"/>
+      <c r="A23" s="59"/>
+      <c r="B23" s="60"/>
       <c r="C23" s="16"/>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
       <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
-      <c r="B24" s="48"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="52"/>
       <c r="C24" s="19"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
       <c r="F24" s="21"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="45"/>
-      <c r="B25" s="46"/>
+      <c r="A25" s="59"/>
+      <c r="B25" s="60"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
       <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
-      <c r="B26" s="48"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="52"/>
       <c r="C26" s="19"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
       <c r="F26" s="21"/>
     </row>
     <row r="27" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="49"/>
-      <c r="B27" s="50"/>
+      <c r="A27" s="61"/>
+      <c r="B27" s="62"/>
       <c r="C27" s="22"/>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
@@ -2094,6 +2109,15 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="L3JGn++vkSXlWLsCCYWWINtqUqmHh3ss+Y3UnfzvYnEO110ZTLt4h5Wk1J0P8sdh9gATNb+6gDKHOpRAIsir+Q==" saltValue="aQCLb7ecvUo3cSUIR9a0KA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="25">
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
@@ -2110,15 +2134,6 @@
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.55118110236220474" top="1.1811023622047245" bottom="0.9055118110236221" header="0.47244094488188981" footer="0.35433070866141736"/>
   <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
@@ -2134,23 +2149,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="adda6a32-00d2-4666-b9cc-96528deec2dc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100974E8E3E9B04D04F8D6F693680045C37" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="35b7d7985860683af24dbe6a2064ba68">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="adda6a32-00d2-4666-b9cc-96528deec2dc" xmlns:ns4="b3a9547a-1fca-4aa3-b835-aaa4e5970e64" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e0be61c5f0201ea221b2bd1cea9215ab" ns3:_="" ns4:_="">
     <xsd:import namespace="adda6a32-00d2-4666-b9cc-96528deec2dc"/>
@@ -2389,32 +2387,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F9A37C5-3D7A-4DD3-B23A-F45CB37B838D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="adda6a32-00d2-4666-b9cc-96528deec2dc"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="b3a9547a-1fca-4aa3-b835-aaa4e5970e64"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3ED21654-8749-4BDD-B9EA-E0D53BBAF9EC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="adda6a32-00d2-4666-b9cc-96528deec2dc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C15EE6F0-8A02-43B6-B407-B9E53D6A3320}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2431,4 +2421,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3ED21654-8749-4BDD-B9EA-E0D53BBAF9EC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F9A37C5-3D7A-4DD3-B23A-F45CB37B838D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="adda6a32-00d2-4666-b9cc-96528deec2dc"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="b3a9547a-1fca-4aa3-b835-aaa4e5970e64"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/Export Vorlage.xlsx
+++ b/data/Export Vorlage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e1d3018db502cb77/Documents/GitHub/Kurzschlussfestigkeit/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{E219C60A-ED74-4BE6-B7AC-30D094904C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70550016-100D-4AB9-989E-BDB991B9330E}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{E219C60A-ED74-4BE6-B7AC-30D094904C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E81CF0A-AF70-44BC-A1D7-461203DE2707}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-45" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Höhenkorrektur" sheetId="18" r:id="rId1"/>
@@ -190,14 +190,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="14">
+  <numFmts count="13">
     <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00;\-* #,##0.00;_-* &quot;-&quot;??;_-@_-"/>
     <numFmt numFmtId="167" formatCode="&quot;CHF&quot;* #,##0.00"/>
     <numFmt numFmtId="168" formatCode="#,##0.0\ &quot;MVA&quot;"/>
     <numFmt numFmtId="169" formatCode="#,##0.00\ &quot;m&quot;"/>
-    <numFmt numFmtId="170" formatCode="#,##0.0"/>
     <numFmt numFmtId="171" formatCode="##0\ &quot;°C&quot;"/>
     <numFmt numFmtId="172" formatCode="#,##0.0\ &quot;kA&quot;"/>
     <numFmt numFmtId="173" formatCode="#,##0.0\ &quot;s&quot;"/>
@@ -1002,9 +1001,6 @@
     <xf numFmtId="169" fontId="20" fillId="33" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="20" fillId="33" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="20" fillId="33" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1037,6 +1033,9 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="177" fontId="20" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="36" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1055,6 +1054,24 @@
     <xf numFmtId="0" fontId="20" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1073,12 +1090,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1097,19 +1108,7 @@
     <xf numFmtId="0" fontId="22" fillId="35" borderId="11" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="20" fillId="33" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1175,6 +1174,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1383,7 +1386,7 @@
   <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1433,7 +1436,7 @@
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="37"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1443,7 +1446,7 @@
       <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="38"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1453,7 +1456,7 @@
       <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="38"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1463,7 +1466,7 @@
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="38"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1473,13 +1476,13 @@
       <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="30"/>
+      <c r="B9" s="29"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="31"/>
+      <c r="B10" s="30"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
@@ -1491,25 +1494,25 @@
       <c r="A12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="32"/>
+      <c r="B12" s="31"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="28"/>
+      <c r="B13" s="63"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="33"/>
+      <c r="B14" s="32"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="63"/>
+      <c r="B15" s="38"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="39" t="s">
@@ -1521,19 +1524,19 @@
       <c r="A17" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="37"/>
+      <c r="B17" s="36"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="29"/>
+      <c r="B18" s="28"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="34"/>
+      <c r="B19" s="33"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="39" t="s">
@@ -1575,19 +1578,19 @@
       <c r="A26" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="35"/>
+      <c r="B26" s="34"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="35"/>
+      <c r="B27" s="34"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="36"/>
+      <c r="B28" s="35"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
@@ -1903,10 +1906,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="46"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="12" t="s">
         <v>6</v>
       </c>
@@ -1921,186 +1924,186 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="48"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="16"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="56"/>
       <c r="C6" s="19"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
       <c r="F6" s="21"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
-      <c r="B7" s="48"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="16"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
       <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
-      <c r="B8" s="54"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="19"/>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="21"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
-      <c r="B9" s="48"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="16"/>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
-      <c r="B10" s="54"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="19"/>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
       <c r="F10" s="21"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
-      <c r="B11" s="48"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="16"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
-      <c r="B12" s="56"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="60"/>
       <c r="C12" s="19"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="21"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
-      <c r="B13" s="58"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="16"/>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
-      <c r="B14" s="50"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="56"/>
       <c r="C14" s="19"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
-      <c r="B15" s="48"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
-      <c r="B16" s="50"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="56"/>
       <c r="C16" s="19"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="21"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" s="48"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="16"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="18"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
-      <c r="B18" s="52"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="48"/>
       <c r="C18" s="19"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
       <c r="F18" s="21"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="59"/>
-      <c r="B19" s="60"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="16"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
       <c r="F19" s="18"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
-      <c r="B20" s="52"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="48"/>
       <c r="C20" s="19"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
       <c r="F20" s="21"/>
     </row>
     <row r="21" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="59"/>
-      <c r="B21" s="60"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="46"/>
       <c r="C21" s="16"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="18"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
-      <c r="B22" s="52"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="48"/>
       <c r="C22" s="19"/>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
       <c r="F22" s="21"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="59"/>
-      <c r="B23" s="60"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="46"/>
       <c r="C23" s="16"/>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
       <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
-      <c r="B24" s="52"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="48"/>
       <c r="C24" s="19"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
       <c r="F24" s="21"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="59"/>
-      <c r="B25" s="60"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="46"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
       <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="51"/>
-      <c r="B26" s="52"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="48"/>
       <c r="C26" s="19"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
       <c r="F26" s="21"/>
     </row>
     <row r="27" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="61"/>
-      <c r="B27" s="62"/>
+      <c r="A27" s="49"/>
+      <c r="B27" s="50"/>
       <c r="C27" s="22"/>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
@@ -2109,15 +2112,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="L3JGn++vkSXlWLsCCYWWINtqUqmHh3ss+Y3UnfzvYnEO110ZTLt4h5Wk1J0P8sdh9gATNb+6gDKHOpRAIsir+Q==" saltValue="aQCLb7ecvUo3cSUIR9a0KA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="25">
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
@@ -2134,6 +2128,15 @@
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.55118110236220474" top="1.1811023622047245" bottom="0.9055118110236221" header="0.47244094488188981" footer="0.35433070866141736"/>
   <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
@@ -2149,6 +2152,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="adda6a32-00d2-4666-b9cc-96528deec2dc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100974E8E3E9B04D04F8D6F693680045C37" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="35b7d7985860683af24dbe6a2064ba68">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="adda6a32-00d2-4666-b9cc-96528deec2dc" xmlns:ns4="b3a9547a-1fca-4aa3-b835-aaa4e5970e64" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e0be61c5f0201ea221b2bd1cea9215ab" ns3:_="" ns4:_="">
     <xsd:import namespace="adda6a32-00d2-4666-b9cc-96528deec2dc"/>
@@ -2387,24 +2407,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F9A37C5-3D7A-4DD3-B23A-F45CB37B838D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="adda6a32-00d2-4666-b9cc-96528deec2dc"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="b3a9547a-1fca-4aa3-b835-aaa4e5970e64"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="adda6a32-00d2-4666-b9cc-96528deec2dc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3ED21654-8749-4BDD-B9EA-E0D53BBAF9EC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C15EE6F0-8A02-43B6-B407-B9E53D6A3320}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2421,29 +2449,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3ED21654-8749-4BDD-B9EA-E0D53BBAF9EC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F9A37C5-3D7A-4DD3-B23A-F45CB37B838D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="adda6a32-00d2-4666-b9cc-96528deec2dc"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="b3a9547a-1fca-4aa3-b835-aaa4e5970e64"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/Export Vorlage.xlsx
+++ b/data/Export Vorlage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e1d3018db502cb77/Documents/GitHub/Kurzschlussfestigkeit/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{E219C60A-ED74-4BE6-B7AC-30D094904C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E81CF0A-AF70-44BC-A1D7-461203DE2707}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{E219C60A-ED74-4BE6-B7AC-30D094904C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBDFAD8F-340E-45F7-86C3-0D18C1B1B36D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -197,13 +197,13 @@
     <numFmt numFmtId="167" formatCode="&quot;CHF&quot;* #,##0.00"/>
     <numFmt numFmtId="168" formatCode="#,##0.0\ &quot;MVA&quot;"/>
     <numFmt numFmtId="169" formatCode="#,##0.00\ &quot;m&quot;"/>
-    <numFmt numFmtId="171" formatCode="##0\ &quot;°C&quot;"/>
-    <numFmt numFmtId="172" formatCode="#,##0.0\ &quot;kA&quot;"/>
-    <numFmt numFmtId="173" formatCode="#,##0.0\ &quot;s&quot;"/>
-    <numFmt numFmtId="174" formatCode="#,##0.00\ &quot;kg&quot;"/>
-    <numFmt numFmtId="175" formatCode="#,##0.00\ &quot;kN&quot;"/>
-    <numFmt numFmtId="176" formatCode="#,##0\ &quot;N/m&quot;"/>
-    <numFmt numFmtId="177" formatCode="#,##0.00\ &quot;Hz&quot;"/>
+    <numFmt numFmtId="170" formatCode="##0\ &quot;°C&quot;"/>
+    <numFmt numFmtId="171" formatCode="#,##0.0\ &quot;kA&quot;"/>
+    <numFmt numFmtId="172" formatCode="#,##0.0\ &quot;s&quot;"/>
+    <numFmt numFmtId="173" formatCode="#,##0.00\ &quot;kg&quot;"/>
+    <numFmt numFmtId="174" formatCode="#,##0.00\ &quot;kN&quot;"/>
+    <numFmt numFmtId="175" formatCode="#,##0\ &quot;N/m&quot;"/>
+    <numFmt numFmtId="176" formatCode="#,##0.00\ &quot;Hz&quot;"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -1004,13 +1004,16 @@
     <xf numFmtId="3" fontId="20" fillId="33" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="170" fontId="20" fillId="33" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="20" fillId="33" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="171" fontId="20" fillId="33" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="20" fillId="33" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="172" fontId="20" fillId="33" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1021,9 +1024,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="175" fontId="20" fillId="33" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="20" fillId="33" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="33" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1033,7 +1033,10 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="20" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="20" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="20" fillId="33" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="36" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1054,62 +1057,59 @@
     <xf numFmtId="0" fontId="20" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="8" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="11" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="8" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="11" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="8" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="11" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="8" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="11" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="20" fillId="33" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1174,10 +1174,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1386,7 +1382,7 @@
   <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1415,19 +1411,19 @@
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="42"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="44"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1485,10 +1481,10 @@
       <c r="B10" s="30"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="40"/>
+      <c r="B11" s="41"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
@@ -1500,7 +1496,7 @@
       <c r="A13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="63"/>
+      <c r="B13" s="39"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
@@ -1515,10 +1511,10 @@
       <c r="B15" s="38"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="40"/>
+      <c r="B16" s="41"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
@@ -1539,10 +1535,10 @@
       <c r="B19" s="33"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="40"/>
+      <c r="B20" s="41"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
@@ -1569,10 +1565,10 @@
       <c r="B24" s="25"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="40"/>
+      <c r="B25" s="41"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
@@ -1593,10 +1589,10 @@
       <c r="B28" s="35"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="40"/>
+      <c r="B29" s="41"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
@@ -1823,7 +1819,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B7" xr:uid="{F26C3A21-341B-48A8-BE93-54040ECB224F}">
       <formula1>"Ja, Nein"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12" xr:uid="{44FD94CC-0310-41FD-B5EC-F0BEE3DD873E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B12" xr:uid="{44FD94CC-0310-41FD-B5EC-F0BEE3DD873E}">
       <formula1>"10, 12. Mai, 16, 20, 25, 31. Mai, 40, 50, 63, 80"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{08C0524C-073B-4EF8-B1C3-26CA161584D5}">
@@ -1888,10 +1884,10 @@
     </row>
     <row r="2" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="42"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="10" t="s">
         <v>3</v>
       </c>
@@ -1906,10 +1902,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="52"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="12" t="s">
         <v>6</v>
       </c>
@@ -1924,186 +1920,186 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="54"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="16"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
-      <c r="B6" s="56"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="19"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
       <c r="F6" s="21"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
-      <c r="B7" s="54"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="16"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
       <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
-      <c r="B8" s="58"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="19"/>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="21"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="16"/>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="57"/>
-      <c r="B10" s="58"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="19"/>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
       <c r="F10" s="21"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
-      <c r="B11" s="54"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="16"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="59"/>
-      <c r="B12" s="60"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="57"/>
       <c r="C12" s="19"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="21"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
-      <c r="B13" s="62"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="59"/>
       <c r="C13" s="16"/>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
-      <c r="B14" s="56"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="19"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
-      <c r="B15" s="54"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
-      <c r="B16" s="56"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="19"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="21"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
-      <c r="B17" s="54"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="16"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="18"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
-      <c r="B18" s="48"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="53"/>
       <c r="C18" s="19"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
       <c r="F18" s="21"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
-      <c r="B19" s="46"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="61"/>
       <c r="C19" s="16"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
       <c r="F19" s="18"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
-      <c r="B20" s="48"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="53"/>
       <c r="C20" s="19"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
       <c r="F20" s="21"/>
     </row>
     <row r="21" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
-      <c r="B21" s="46"/>
+      <c r="A21" s="60"/>
+      <c r="B21" s="61"/>
       <c r="C21" s="16"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="18"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
-      <c r="B22" s="48"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="53"/>
       <c r="C22" s="19"/>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
       <c r="F22" s="21"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
-      <c r="B23" s="46"/>
+      <c r="A23" s="60"/>
+      <c r="B23" s="61"/>
       <c r="C23" s="16"/>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
       <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
-      <c r="B24" s="48"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="53"/>
       <c r="C24" s="19"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
       <c r="F24" s="21"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="45"/>
-      <c r="B25" s="46"/>
+      <c r="A25" s="60"/>
+      <c r="B25" s="61"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
       <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
-      <c r="B26" s="48"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="53"/>
       <c r="C26" s="19"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
       <c r="F26" s="21"/>
     </row>
     <row r="27" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="49"/>
-      <c r="B27" s="50"/>
+      <c r="A27" s="62"/>
+      <c r="B27" s="63"/>
       <c r="C27" s="22"/>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
@@ -2112,6 +2108,15 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="L3JGn++vkSXlWLsCCYWWINtqUqmHh3ss+Y3UnfzvYnEO110ZTLt4h5Wk1J0P8sdh9gATNb+6gDKHOpRAIsir+Q==" saltValue="aQCLb7ecvUo3cSUIR9a0KA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="25">
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
@@ -2128,15 +2133,6 @@
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.55118110236220474" top="1.1811023622047245" bottom="0.9055118110236221" header="0.47244094488188981" footer="0.35433070866141736"/>
   <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
@@ -2160,15 +2156,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100974E8E3E9B04D04F8D6F693680045C37" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="35b7d7985860683af24dbe6a2064ba68">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="adda6a32-00d2-4666-b9cc-96528deec2dc" xmlns:ns4="b3a9547a-1fca-4aa3-b835-aaa4e5970e64" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e0be61c5f0201ea221b2bd1cea9215ab" ns3:_="" ns4:_="">
     <xsd:import namespace="adda6a32-00d2-4666-b9cc-96528deec2dc"/>
@@ -2407,6 +2394,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F9A37C5-3D7A-4DD3-B23A-F45CB37B838D}">
   <ds:schemaRefs>
@@ -2425,14 +2421,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3ED21654-8749-4BDD-B9EA-E0D53BBAF9EC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C15EE6F0-8A02-43B6-B407-B9E53D6A3320}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2449,4 +2437,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3ED21654-8749-4BDD-B9EA-E0D53BBAF9EC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/Export Vorlage.xlsx
+++ b/data/Export Vorlage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e1d3018db502cb77/Documents/GitHub/Kurzschlussfestigkeit/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{E219C60A-ED74-4BE6-B7AC-30D094904C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBDFAD8F-340E-45F7-86C3-0D18C1B1B36D}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{E219C60A-ED74-4BE6-B7AC-30D094904C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E3B7148-E890-47C8-B4FB-59285E31D06A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Versionskontrolle</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>f Frequenz des Netzes</t>
+  </si>
+  <si>
+    <t>l_h_f Länge einer Klemme u. Formfaktor</t>
   </si>
 </sst>
 </file>
@@ -922,7 +925,7 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="22" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1057,6 +1060,24 @@
     <xf numFmtId="0" fontId="20" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1075,12 +1096,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1099,17 +1114,8 @@
     <xf numFmtId="0" fontId="22" fillId="35" borderId="11" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1174,6 +1180,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1379,10 +1389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A078B13-6700-4179-A8AA-055BB431ED20}">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A11" sqref="A11:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1553,109 +1563,112 @@
       <c r="B22" s="25"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>31</v>
+      <c r="A23" s="64" t="s">
+        <v>49</v>
       </c>
       <c r="B23" s="25"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="25"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="25"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="40" t="s">
+      <c r="B25" s="25"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="41"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="B26" s="41"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="34"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="B27" s="34"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="34"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="B28" s="34"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="35"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="40" t="s">
+      <c r="B29" s="35"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="41"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="B30" s="41"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="25"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="B31" s="25"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="25"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="B32" s="25"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="25"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="B33" s="25"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="25"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+      <c r="B34" s="25"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="25"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="B35" s="25"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="25"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+      <c r="B36" s="25"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="25"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="B37" s="25"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="25"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="B38" s="25"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="25"/>
-    </row>
-    <row r="39" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="26" t="s">
+      <c r="B39" s="25"/>
+    </row>
+    <row r="40" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="27"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
+      <c r="B40" s="27"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
@@ -1721,14 +1734,10 @@
       <c r="A61" s="8"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
+      <c r="A62" s="8"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="8"/>
+      <c r="A63" s="3"/>
       <c r="B63" s="9"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1797,15 +1806,22 @@
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
     </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="8"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <protectedRanges>
-    <protectedRange sqref="B62:B72 B5:B39" name="Bereich2"/>
-    <protectedRange sqref="D62:D72" name="Bereich4"/>
+    <protectedRange sqref="B63:B73 B5:B40" name="Bereich2"/>
+    <protectedRange sqref="D63:D73" name="Bereich4"/>
   </protectedRanges>
   <mergeCells count="7">
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A30:B30"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A4:B4"/>
@@ -1834,7 +1850,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18" xr:uid="{1ABE7FAD-7B2B-4458-8FFC-BA5401C0A807}">
       <formula1>"1,2,3,4,5,6"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28" xr:uid="{0CFB30F6-47B6-427A-AC3C-89C710C4684F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29" xr:uid="{0CFB30F6-47B6-427A-AC3C-89C710C4684F}">
       <formula1>"100000, 150000, 1300000, 400000, 2000000, 600000, 3000000"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17" xr:uid="{DD76BAA2-9D59-4DB8-852A-41AA0F911BDB}">
@@ -1902,10 +1918,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="47"/>
+      <c r="B4" s="53"/>
       <c r="C4" s="12" t="s">
         <v>6</v>
       </c>
@@ -1920,186 +1936,186 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="49"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="16"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
-      <c r="B6" s="51"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="19"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
       <c r="F6" s="21"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
-      <c r="B7" s="49"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="16"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
       <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
-      <c r="B8" s="55"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="19"/>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="21"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
-      <c r="B9" s="49"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="16"/>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
-      <c r="B10" s="55"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="59"/>
       <c r="C10" s="19"/>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
       <c r="F10" s="21"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
-      <c r="B11" s="49"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="16"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="56"/>
-      <c r="B12" s="57"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="61"/>
       <c r="C12" s="19"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="21"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
-      <c r="B13" s="59"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="63"/>
       <c r="C13" s="16"/>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
-      <c r="B14" s="51"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="19"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
-      <c r="B15" s="49"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
-      <c r="B16" s="51"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="19"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="21"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="48"/>
-      <c r="B17" s="49"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="16"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="18"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="52"/>
-      <c r="B18" s="53"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="19"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
       <c r="F18" s="21"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="60"/>
-      <c r="B19" s="61"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="16"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
       <c r="F19" s="18"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="52"/>
-      <c r="B20" s="53"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="19"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
       <c r="F20" s="21"/>
     </row>
     <row r="21" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="60"/>
-      <c r="B21" s="61"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="16"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="18"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="52"/>
-      <c r="B22" s="53"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="19"/>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
       <c r="F22" s="21"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="60"/>
-      <c r="B23" s="61"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="16"/>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
       <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="52"/>
-      <c r="B24" s="53"/>
+      <c r="A24" s="48"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="19"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
       <c r="F24" s="21"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="60"/>
-      <c r="B25" s="61"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
       <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="52"/>
-      <c r="B26" s="53"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="19"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
       <c r="F26" s="21"/>
     </row>
     <row r="27" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="62"/>
-      <c r="B27" s="63"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="22"/>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
@@ -2108,15 +2124,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="L3JGn++vkSXlWLsCCYWWINtqUqmHh3ss+Y3UnfzvYnEO110ZTLt4h5Wk1J0P8sdh9gATNb+6gDKHOpRAIsir+Q==" saltValue="aQCLb7ecvUo3cSUIR9a0KA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="25">
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
@@ -2133,6 +2140,15 @@
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.55118110236220474" top="1.1811023622047245" bottom="0.9055118110236221" header="0.47244094488188981" footer="0.35433070866141736"/>
   <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
@@ -2148,11 +2164,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="adda6a32-00d2-4666-b9cc-96528deec2dc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2395,27 +2412,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="adda6a32-00d2-4666-b9cc-96528deec2dc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F9A37C5-3D7A-4DD3-B23A-F45CB37B838D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3ED21654-8749-4BDD-B9EA-E0D53BBAF9EC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="adda6a32-00d2-4666-b9cc-96528deec2dc"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="b3a9547a-1fca-4aa3-b835-aaa4e5970e64"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2440,9 +2447,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3ED21654-8749-4BDD-B9EA-E0D53BBAF9EC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F9A37C5-3D7A-4DD3-B23A-F45CB37B838D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="adda6a32-00d2-4666-b9cc-96528deec2dc"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="b3a9547a-1fca-4aa3-b835-aaa4e5970e64"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>